--- a/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Date_metadata.xlsx
+++ b/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Date_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEIS732\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T04_M2_D2_MDM_Metadata_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3227F7AE-B804-42C6-84A7-651566997C79}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C0B636-DDDF-468B-ACCC-295537BDDBEF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{4AEB511D-8706-4EC5-8474-93D7501E35E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
   <si>
     <t>Dimension Name</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>The Year in CCYY format</t>
+  </si>
+  <si>
+    <t>DAT_KEY   &lt;PK&gt;</t>
   </si>
 </sst>
 </file>
@@ -725,26 +728,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -780,6 +763,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,13 +1109,13 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.36328125" customWidth="1"/>
-    <col min="2" max="2" width="25.90625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" style="46" customWidth="1"/>
     <col min="3" max="3" width="57.26953125" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.81640625" customWidth="1"/>
@@ -1123,7 +1126,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="17"/>
-      <c r="B1" s="52"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="1"/>
@@ -1133,7 +1136,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1151,7 +1154,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1216,13 +1219,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="39">
+      <c r="A6" s="56">
         <v>2</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="56" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1242,9 +1245,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
@@ -1262,9 +1265,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
@@ -1282,9 +1285,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1302,13 +1305,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="34">
+      <c r="A10" s="51">
         <v>3</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="51" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -1328,9 +1331,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="37"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="24" t="s">
         <v>27</v>
       </c>
@@ -1348,9 +1351,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="24" t="s">
         <v>30</v>
       </c>
@@ -1368,9 +1371,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="24" t="s">
         <v>32</v>
       </c>
@@ -1388,9 +1391,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="24" t="s">
         <v>34</v>
       </c>
@@ -1408,9 +1411,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="24" t="s">
         <v>37</v>
       </c>
@@ -1428,9 +1431,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="24" t="s">
         <v>39</v>
       </c>
@@ -1448,9 +1451,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="24" t="s">
         <v>41</v>
       </c>
@@ -1468,9 +1471,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="24" t="s">
         <v>43</v>
       </c>
@@ -1488,9 +1491,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="24" t="s">
         <v>45</v>
       </c>
@@ -1508,9 +1511,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="24" t="s">
         <v>47</v>
       </c>
@@ -1528,9 +1531,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="24" t="s">
         <v>50</v>
       </c>
@@ -1548,9 +1551,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="24" t="s">
         <v>52</v>
       </c>
@@ -1568,9 +1571,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="20" t="s">
         <v>55</v>
       </c>
@@ -1588,9 +1591,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="38"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="25" t="s">
         <v>58</v>
       </c>
@@ -1608,263 +1611,263 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:8" s="49" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="51" t="s">
+    <row r="27" spans="1:8" s="41" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="46"/>
+      <c r="D27" s="38"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="56">
+      <c r="B28" s="48">
         <v>1997</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="48"/>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="57">
+      <c r="B29" s="49">
         <v>1000</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="45"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="45"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="45"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="45"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="57">
+      <c r="B34" s="49">
         <v>1</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="45"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="57">
+      <c r="B35" s="49">
         <v>1</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="45"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="57">
+      <c r="B36" s="49">
         <v>3000</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="57">
+      <c r="B37" s="49">
         <v>1</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="45"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="45"/>
+      <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="45"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="57">
+      <c r="A40" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="49">
         <v>1</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="45"/>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="57">
+      <c r="B41" s="49">
         <v>1</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="45"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="57">
+      <c r="B42" s="49">
         <v>1</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="45"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="45"/>
+      <c r="D43" s="37"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="57">
+      <c r="B44" s="49">
         <v>1</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="45"/>
+      <c r="D44" s="37"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="45"/>
+      <c r="D45" s="37"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="45"/>
+      <c r="D46" s="37"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="58">
+      <c r="B47" s="50">
         <v>35431</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="45"/>
+      <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="42"/>
+      <c r="A48" s="34"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="42"/>
+      <c r="A49" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
